--- a/Hydrophones/Results/noise_corrected/calculations/storm5_results.xlsx
+++ b/Hydrophones/Results/noise_corrected/calculations/storm5_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Hydrophones\Results\noise_corrected\calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA6ABDF-A041-4FFA-A028-D2AADD068741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDA3D42-0273-45F5-A20B-B29C0269F57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{15DDD12E-7E98-4840-8D14-77F29BA09B0C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>max_amp</t>
   </si>
@@ -5540,8 +5540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5765E6-1EB2-4729-9DB9-6E203F4C8132}">
   <dimension ref="A1:CT131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15627,6 +15627,16 @@
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="5">
+        <f t="shared" ref="B62:B63" si="1">MAX(B29:CT29)</f>
+        <v>2.7664001109999998</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.8125</v>
+      </c>
       <c r="E62" s="1">
         <v>45151.28125</v>
       </c>
@@ -15641,6 +15651,16 @@
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="5">
+        <f t="shared" si="1"/>
+        <v>6.6345603949445398</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.85416666666666696</v>
+      </c>
       <c r="E63" s="1">
         <v>45151.291666666664</v>
       </c>
